--- a/prueba_tipo_cambio_usd_ine.xlsx
+++ b/prueba_tipo_cambio_usd_ine.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8881"/>
+  <dimension ref="A1:C8886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98234,6 +98234,61 @@
         <v>38.2</v>
       </c>
     </row>
+    <row r="8882">
+      <c r="A8882" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8882" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="C8882" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="8883">
+      <c r="A8883" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8883" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="C8883" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="8884">
+      <c r="A8884" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8884" s="2" t="n">
+        <v>46046</v>
+      </c>
+      <c r="C8884" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="8885">
+      <c r="A8885" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8885" s="2" t="n">
+        <v>46047</v>
+      </c>
+      <c r="C8885" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="8886">
+      <c r="A8886" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8886" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="C8886" t="n">
+        <v>38.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
